--- a/MEAN, MEDIAN,MODE,HISTOGRAM.xlsx
+++ b/MEAN, MEDIAN,MODE,HISTOGRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42E5C1C-D4EB-4D02-A21C-14D1B95231E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C208305-34D4-4927-9BDB-248766EC64E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A41DABC-7213-4FC2-AC2C-955DB1842DB4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <t>S. NO.</t>
   </si>
@@ -62,12 +62,202 @@
   <si>
     <t>Frequency</t>
   </si>
+  <si>
+    <t>Ages</t>
+  </si>
+  <si>
+    <t>Stem</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>STEM</t>
+  </si>
+  <si>
+    <t>LEAF</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>F*X</t>
+  </si>
+  <si>
+    <t>PROB</t>
+  </si>
+  <si>
+    <t>MEAN= {SUM OF (F*X)/SUM OF F}</t>
+  </si>
+  <si>
+    <t>P(estimate)</t>
+  </si>
+  <si>
+    <t>P(estimate)= MEAN/N</t>
+  </si>
+  <si>
+    <t>E.F</t>
+  </si>
+  <si>
+    <t>PROB = BINOM.DIST(SELECT X,N=7,P=0536646,FALSE)</t>
+  </si>
+  <si>
+    <t>E.F(EXPECTED FREQUENCY) =PROB(eg 0.037176)*sum of F(115)</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>below 60</t>
+  </si>
+  <si>
+    <t>60-65</t>
+  </si>
+  <si>
+    <t>65-70</t>
+  </si>
+  <si>
+    <t>70-75</t>
+  </si>
+  <si>
+    <t>75-80</t>
+  </si>
+  <si>
+    <t>80-85</t>
+  </si>
+  <si>
+    <t>85-90</t>
+  </si>
+  <si>
+    <t>90-95</t>
+  </si>
+  <si>
+    <t>95-100</t>
+  </si>
+  <si>
+    <t>100 and over</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>lower class</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>upper class</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid </t>
+  </si>
+  <si>
+    <t>X=(U+L)/2</t>
+  </si>
+  <si>
+    <t>f*X</t>
+  </si>
+  <si>
+    <t>f*X^2</t>
+  </si>
+  <si>
+    <t>Mean(u)</t>
+  </si>
+  <si>
+    <t>Var(v)</t>
+  </si>
+  <si>
+    <t>S.D. (s)</t>
+  </si>
+  <si>
+    <t>Z=(L-u)/s</t>
+  </si>
+  <si>
+    <t>NORMAL DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>FITTING OF POISSION DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>X*F</t>
+  </si>
+  <si>
+    <t>PROB(POISSON.DIST)</t>
+  </si>
+  <si>
+    <t>REGRESSION LINE</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Slope m</t>
+  </si>
+  <si>
+    <t>Intercept b</t>
+  </si>
+  <si>
+    <r>
+      <t>Coe. Of Determination R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Coe. Of Correlation R</t>
+  </si>
+  <si>
+    <t>Y=0.95x + 7.25</t>
+  </si>
+  <si>
+    <t>X^2</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>CALCULATING COEFICIENT OF CORRELATION</t>
+  </si>
+  <si>
+    <t>Y^2</t>
+  </si>
+  <si>
+    <t>R = (SUM OF XY)/SQRT OF{ (SUM(X^2)*(SUM(Y^2))}</t>
+  </si>
+  <si>
+    <t>OR WE CAN JUST CALL  =CORREL(A148:A155,B148:B155)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +265,81 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,8 +354,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,48 +532,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$12</c:f>
@@ -350,8 +575,66 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-96C4-490D-B189-0B18D55F2B0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-96C4-490D-B189-0B18D55F2B0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -622,7 +905,2388 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t> Graph</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Of Binomial Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26782633420822405"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$59:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC43-4723-9E4E-5989E7F54602}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC43-4723-9E4E-5989E7F54602}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F*X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$59:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FC43-4723-9E4E-5989E7F54602}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PROB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$59:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.7176066444818218E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12916940840057003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24933508843681906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28877419396242437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20067099810489492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7470852702253151E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2817852693698969E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FC43-4723-9E4E-5989E7F54602}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E.F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$59:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.2752476411540954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.854481966065554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.673535170234192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.209032305678804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.077164782062916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9091480607591116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4740530597753814</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FC43-4723-9E4E-5989E7F54602}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1982861168"/>
+        <c:axId val="1905187184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1982861168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905187184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1905187184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1982861168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>GRAPH OF POISSION DISTRIBUTION</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$106:$A$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75B5-4C71-817C-EAF327737B1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$106:$B$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75B5-4C71-817C-EAF327737B1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X*F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$106:$C$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75B5-4C71-817C-EAF327737B1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PROB(POISSON.DIST)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$106:$D$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.32804417493060722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36564033368687932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20377263770486573</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5708802798102395E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1096390390096129E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7028368807067794E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.736358178489884E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-75B5-4C71-817C-EAF327737B1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E.F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$106:$E$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>145.97965784412023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162.7099484906613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.678823778665247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.690417245155565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3878937235927769</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0927624119145167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38876793894279982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-75B5-4C71-817C-EAF327737B1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1905333600"/>
+        <c:axId val="1975415984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1905333600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975415984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1975415984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905333600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Y vs X</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6713899902016275E-2"/>
+                  <c:y val="-0.17454117647058823"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$126:$A$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$126:$B$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDF4-4DFB-8E81-27FEC030EDCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1979166672"/>
+        <c:axId val="1975414000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1979166672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975414000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1975414000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1979166672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$126:$A$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$126:$B$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A48-40A8-B3BE-5F7B4E934796}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y=0.95x + 7.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$126:$A$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$126:$C$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A48-40A8-B3BE-5F7B4E934796}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="105754544"/>
+        <c:axId val="1906771504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="105754544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1906771504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1906771504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="105754544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1165,6 +3829,2044 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1198,6 +5900,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4A0CF3-E86E-2065-9AE0-E4C5876B090E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453B58FC-658F-81B6-5C08-FC0EBCC8225E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADC5F37-416F-5CE2-1DC0-E7B95C6905A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>157655</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>45752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>496150</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>29985</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4944ADC-CAAA-76E3-CB17-3512DE4A3C0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1503,13 +6349,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF90AF1-63D6-48D6-8B52-8E1895DEF92C}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="103" workbookViewId="0">
+      <selection activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1888,8 +6739,1565 @@
         <v>12</v>
       </c>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <f>MIN(A35:A53)</f>
+        <v>10</v>
+      </c>
+      <c r="F35" s="1">
+        <f>_xlfn.FLOOR.MATH(A35/10)</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f>RIGHT(A35,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>34578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <f>MAX(A35:A53)</f>
+        <v>60</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" ref="F36:F53" si="0">_xlfn.FLOOR.MATH(A36/10)</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" ref="G36:G53" si="1">RIGHT(A36,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>27</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>55</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>58</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>59</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>59</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>60</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G53" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <f>B59*A59</f>
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <f>_xlfn.BINOM.DIST(A59,7,0.536646,FALSE)</f>
+        <v>3.7176066444818218E-2</v>
+      </c>
+      <c r="E59">
+        <f>D59*115</f>
+        <v>4.2752476411540954</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:C65" si="2">B60*A60</f>
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60:D65" si="3">_xlfn.BINOM.DIST(A60,7,0.536646,FALSE)</f>
+        <v>0.12916940840057003</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60:E65" si="4">D60*115</f>
+        <v>14.854481966065554</v>
+      </c>
+      <c r="K60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="3"/>
+        <v>0.24933508843681906</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>28.673535170234192</v>
+      </c>
+      <c r="K61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>42</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="3"/>
+        <v>0.28877419396242437</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>33.209032305678804</v>
+      </c>
+      <c r="K62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="3"/>
+        <v>0.20067099810489492</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>23.077164782062916</v>
+      </c>
+      <c r="K63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="3"/>
+        <v>7.7470852702253151E-2</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="4"/>
+        <v>8.9091480607591116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="3"/>
+        <v>1.2817852693698969E-2</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="4"/>
+        <v>1.4740530597753814</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="6">
+        <f>SUM(B59:B65)</f>
+        <v>115</v>
+      </c>
+      <c r="C66" s="6">
+        <f>SUM(C59:C65)</f>
+        <v>432</v>
+      </c>
+      <c r="D66" s="6">
+        <f>SUM(D59:D65)</f>
+        <v>0.99541446074547879</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="7">
+        <f>C66/B66</f>
+        <v>3.7565217391304349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="9">
+        <f>B67/B68</f>
+        <v>0.53664596273291931</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" t="s">
+        <v>48</v>
+      </c>
+      <c r="G84" t="s">
+        <v>49</v>
+      </c>
+      <c r="H84" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>60</v>
+      </c>
+      <c r="D85">
+        <v>65</v>
+      </c>
+      <c r="E85">
+        <f>(D85+C85)/2</f>
+        <v>62.5</v>
+      </c>
+      <c r="F85">
+        <f>B85*E85</f>
+        <v>187.5</v>
+      </c>
+      <c r="G85">
+        <f>F85*E85</f>
+        <v>11718.75</v>
+      </c>
+      <c r="H85">
+        <f>(C85-79.945)/5.444904</f>
+        <v>-3.6630581549279828</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86">
+        <v>21</v>
+      </c>
+      <c r="C86">
+        <v>65</v>
+      </c>
+      <c r="D86">
+        <v>70</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ref="E86:E93" si="5">(D86+C86)/2</f>
+        <v>67.5</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ref="F86:F92" si="6">B86*E86</f>
+        <v>1417.5</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ref="G86:G92" si="7">F86*E86</f>
+        <v>95681.25</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ref="H86:H93" si="8">(C86-79.945)/5.444904</f>
+        <v>-2.7447683191475907</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87">
+        <v>150</v>
+      </c>
+      <c r="C87">
+        <v>70</v>
+      </c>
+      <c r="D87">
+        <v>75</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="5"/>
+        <v>72.5</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="6"/>
+        <v>10875</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="7"/>
+        <v>788437.5</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="8"/>
+        <v>-1.8264784833671985</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88">
+        <v>335</v>
+      </c>
+      <c r="C88">
+        <v>75</v>
+      </c>
+      <c r="D88">
+        <v>80</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>77.5</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="6"/>
+        <v>25962.5</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="7"/>
+        <v>2012093.75</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="8"/>
+        <v>-0.90818864758680651</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89">
+        <v>326</v>
+      </c>
+      <c r="C89">
+        <v>80</v>
+      </c>
+      <c r="D89">
+        <v>85</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="5"/>
+        <v>82.5</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="6"/>
+        <v>26895</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="7"/>
+        <v>2218837.5</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="8"/>
+        <v>1.0101188193585565E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90">
+        <v>135</v>
+      </c>
+      <c r="C90">
+        <v>85</v>
+      </c>
+      <c r="D90">
+        <v>90</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="5"/>
+        <v>87.5</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="6"/>
+        <v>11812.5</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="7"/>
+        <v>1033593.75</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="8"/>
+        <v>0.92839102397397766</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91">
+        <v>26</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+      <c r="D91">
+        <v>95</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="5"/>
+        <v>92.5</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="6"/>
+        <v>2405</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="7"/>
+        <v>222462.5</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="8"/>
+        <v>1.8466808597543696</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>95</v>
+      </c>
+      <c r="D92">
+        <v>100</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="5"/>
+        <v>97.5</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="7"/>
+        <v>38025</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="8"/>
+        <v>2.7649706955347617</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>100</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="F93">
+        <f>SUM(F85:F92)</f>
+        <v>79945</v>
+      </c>
+      <c r="G93">
+        <f>SUM(G85:G92)</f>
+        <v>6420850</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="8"/>
+        <v>3.6832605313151539</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95">
+        <f>SUM(B85:B93)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96">
+        <f>F93/B95</f>
+        <v>79.944999999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97">
+        <f>(G93/B95)-(B96^2)</f>
+        <v>29.646975000001476</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98">
+        <f>SQRT(B97)</f>
+        <v>5.4449035804136585</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D103" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" t="s">
+        <v>57</v>
+      </c>
+      <c r="E105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>153</v>
+      </c>
+      <c r="C106">
+        <f>A106*B106</f>
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <f>_xlfn.POISSON.DIST(A106,1.114607,)</f>
+        <v>0.32804417493060722</v>
+      </c>
+      <c r="E106">
+        <f>D106*445</f>
+        <v>145.97965784412023</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>169</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ref="C107:C112" si="9">A107*B107</f>
+        <v>169</v>
+      </c>
+      <c r="D107">
+        <f t="shared" ref="D107:D112" si="10">_xlfn.POISSON.DIST(A107,1.114607,)</f>
+        <v>0.36564033368687932</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ref="E107:E112" si="11">D107*445</f>
+        <v>162.7099484906613</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>72</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="9"/>
+        <v>144</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="10"/>
+        <v>0.20377263770486573</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="11"/>
+        <v>90.678823778665247</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>31</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="10"/>
+        <v>7.5708802798102395E-2</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="11"/>
+        <v>33.690417245155565</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="10"/>
+        <v>2.1096390390096129E-2</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="11"/>
+        <v>9.3878937235927769</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="10"/>
+        <v>4.7028368807067794E-3</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="11"/>
+        <v>2.0927624119145167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="10"/>
+        <v>8.736358178489884E-4</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="11"/>
+        <v>0.38876793894279982</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113">
+        <f>SUM(B106:B112)</f>
+        <v>445</v>
+      </c>
+      <c r="C113">
+        <f>SUM(C106:C112)</f>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115">
+        <f>C113/B113</f>
+        <v>1.1146067415730336</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D123" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" t="s">
+        <v>59</v>
+      </c>
+      <c r="C125" t="s">
+        <v>64</v>
+      </c>
+      <c r="D125" t="s">
+        <v>65</v>
+      </c>
+      <c r="E125" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <f>0.95*A126+7.25</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D126">
+        <f>A126^2</f>
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <f>A126*B126</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ref="C127:C134" si="12">0.95*A127+7.25</f>
+        <v>9.15</v>
+      </c>
+      <c r="D127">
+        <f t="shared" ref="D127:D134" si="13">A127^2</f>
+        <v>4</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ref="E127:E134" si="14">A127*B127</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>10</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="12"/>
+        <v>10.1</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>4</v>
+      </c>
+      <c r="B129">
+        <v>12</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="12"/>
+        <v>11.05</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="14"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="14"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>6</v>
+      </c>
+      <c r="B131">
+        <v>13</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="12"/>
+        <v>12.95</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="14"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>7</v>
+      </c>
+      <c r="B132">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="12"/>
+        <v>13.899999999999999</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="14"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>8</v>
+      </c>
+      <c r="B133">
+        <v>16</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="12"/>
+        <v>14.85</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="14"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>9</v>
+      </c>
+      <c r="B134">
+        <v>15</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="12"/>
+        <v>15.799999999999999</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="13"/>
+        <v>81</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <f>SUM(A126:A134)</f>
+        <v>45</v>
+      </c>
+      <c r="B136">
+        <f>SUM(B126:B134)</f>
+        <v>108</v>
+      </c>
+      <c r="C136">
+        <f>SUM(C126:C134)</f>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="D136">
+        <f>SUM(D126:D134)</f>
+        <v>285</v>
+      </c>
+      <c r="E136">
+        <f>SUM(E126:E134)</f>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>60</v>
+      </c>
+      <c r="C138">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>62</v>
+      </c>
+      <c r="C140">
+        <v>0.90249999999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>63</v>
+      </c>
+      <c r="C141">
+        <f>SQRT(C140)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147" t="s">
+        <v>59</v>
+      </c>
+      <c r="C147" t="s">
+        <v>65</v>
+      </c>
+      <c r="D147" t="s">
+        <v>68</v>
+      </c>
+      <c r="E147" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>66</v>
+      </c>
+      <c r="B148">
+        <v>34</v>
+      </c>
+      <c r="C148">
+        <f>A148^2</f>
+        <v>4356</v>
+      </c>
+      <c r="D148">
+        <f>B148^2</f>
+        <v>1156</v>
+      </c>
+      <c r="E148">
+        <f>A148*B148</f>
+        <v>2244</v>
+      </c>
+      <c r="H148" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>67</v>
+      </c>
+      <c r="B149">
+        <v>43</v>
+      </c>
+      <c r="C149">
+        <f t="shared" ref="C149:C155" si="15">A149^2</f>
+        <v>4489</v>
+      </c>
+      <c r="D149">
+        <f t="shared" ref="D149:D155" si="16">B149^2</f>
+        <v>1849</v>
+      </c>
+      <c r="E149">
+        <f t="shared" ref="E149:E155" si="17">A149*B149</f>
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>68</v>
+      </c>
+      <c r="B150">
+        <v>56</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="15"/>
+        <v>4624</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="16"/>
+        <v>3136</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="17"/>
+        <v>3808</v>
+      </c>
+      <c r="H150" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>75</v>
+      </c>
+      <c r="B151">
+        <v>67</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="15"/>
+        <v>5625</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="16"/>
+        <v>4489</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="17"/>
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>46</v>
+      </c>
+      <c r="B152">
+        <v>97</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="15"/>
+        <v>2116</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="16"/>
+        <v>9409</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="17"/>
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>34</v>
+      </c>
+      <c r="B153">
+        <v>34</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="15"/>
+        <v>1156</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="16"/>
+        <v>1156</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="17"/>
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>79</v>
+      </c>
+      <c r="B154">
+        <v>23</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="15"/>
+        <v>6241</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="16"/>
+        <v>529</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="17"/>
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>72</v>
+      </c>
+      <c r="B155">
+        <v>45</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="15"/>
+        <v>5184</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="16"/>
+        <v>2025</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="17"/>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156">
+        <f>SUM(C148:C155)</f>
+        <v>33791</v>
+      </c>
+      <c r="D156">
+        <f>SUM(D148:D155)</f>
+        <v>23749</v>
+      </c>
+      <c r="E156">
+        <f>SUM(E148:E155)</f>
+        <v>24633</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>63</v>
+      </c>
+      <c r="C159">
+        <f>CORREL(A148:A155,B148:B155)</f>
+        <v>-0.25859734370111087</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>